--- a/IoT_Controller/Design_Output/Requirements_Definition.xlsx
+++ b/IoT_Controller/Design_Output/Requirements_Definition.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FarmGuard\IoT_Controller\Design_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5658F74-54E2-4BFD-9EA3-94C5C080D7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B172CC9-8CC4-4CC7-8385-8FBF9A17F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20685" windowHeight="15585" xr2:uid="{67529C8B-2474-4F03-A493-E8B5D631411E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{67529C8B-2474-4F03-A493-E8B5D631411E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>IoT 제어기 요구사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +60,74 @@
   </si>
   <si>
     <t>조도측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구동기 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 여부 논의 필요 대략 3~4cm정도 측정될듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.devicemart.co.kr/goods/view?no=10916344 </t>
+  </si>
+  <si>
+    <t>접촉식 수위 센서 모듈</t>
+  </si>
+  <si>
+    <t>여러 개 필요, 혹은 다른 완제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=13903407</t>
+  </si>
+  <si>
+    <t>UV LED</t>
+  </si>
+  <si>
+    <t>기존꺼 사용</t>
+  </si>
+  <si>
+    <t>조도 센서 모듈</t>
+  </si>
+  <si>
+    <t>개수 논의 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.devicemart.co.kr/goods/view?no=10916343</t>
+  </si>
+  <si>
+    <t>디지털 온습도 센서 모듈</t>
+  </si>
+  <si>
+    <t>센서 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +151,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,9 +201,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D873C1-BFE1-451A-A1DD-D0B5B681C1AB}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,4 +576,185 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953BC52-F007-4366-931F-6900E9D95904}">
+  <dimension ref="A2:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>2100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f>C12*D12</f>
+        <v>12600</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>C13*D13</f>
+        <v>1100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="2">
+        <f>SUM(E10:E15)</f>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>